--- a/Code/Results/Cases/Case_3_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_110/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.983753639698421</v>
+        <v>1.813677153944695</v>
       </c>
       <c r="C2">
-        <v>1.614858406555697</v>
+        <v>0.7065639160009596</v>
       </c>
       <c r="D2">
-        <v>0.1031646233278991</v>
+        <v>0.1379950750549597</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.514253987629829</v>
+        <v>2.631178938091892</v>
       </c>
       <c r="G2">
-        <v>0.0007824215140817337</v>
+        <v>0.002501828940926806</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8466190292969884</v>
+        <v>1.094282161516929</v>
       </c>
       <c r="J2">
-        <v>0.4451409318277655</v>
+        <v>0.3525354678427703</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6434356939098294</v>
+        <v>1.385982282758096</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.440684951350079</v>
+        <v>1.678304304843493</v>
       </c>
       <c r="C3">
-        <v>1.392320871703078</v>
+        <v>0.6523304722893499</v>
       </c>
       <c r="D3">
-        <v>0.09141314333264461</v>
+        <v>0.135685494883262</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.262997608909203</v>
+        <v>2.591588512679365</v>
       </c>
       <c r="G3">
-        <v>0.0007918725591027703</v>
+        <v>0.002507634745315879</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7842978669003315</v>
+        <v>1.088857847933447</v>
       </c>
       <c r="J3">
-        <v>0.3906133027089425</v>
+        <v>0.3416937574009893</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6976400770466249</v>
+        <v>1.406220596217732</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.112745331815233</v>
+        <v>1.596119825845676</v>
       </c>
       <c r="C4">
-        <v>1.258432793371298</v>
+        <v>0.619434472920716</v>
       </c>
       <c r="D4">
-        <v>0.08429817843081366</v>
+        <v>0.1343179594307173</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.115490019533866</v>
+        <v>2.569109304773662</v>
       </c>
       <c r="G4">
-        <v>0.0007978119617169996</v>
+        <v>0.002511384081331946</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7487117055871053</v>
+        <v>1.086295189753933</v>
       </c>
       <c r="J4">
-        <v>0.3580951715006933</v>
+        <v>0.3352687684444788</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7325486791261255</v>
+        <v>1.419257753582169</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.980288523109948</v>
+        <v>1.56286209936377</v>
       </c>
       <c r="C5">
-        <v>1.204463692431375</v>
+        <v>0.6061292223374721</v>
       </c>
       <c r="D5">
-        <v>0.08142098146407761</v>
+        <v>0.1337734208037133</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.056898184827688</v>
+        <v>2.560406028647137</v>
       </c>
       <c r="G5">
-        <v>0.0008002688914728386</v>
+        <v>0.002512958541597698</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7348181768259749</v>
+        <v>1.085442839637238</v>
       </c>
       <c r="J5">
-        <v>0.3450559255807519</v>
+        <v>0.3327084109077276</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.747162205979393</v>
+        <v>1.424723653769419</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.958359932378244</v>
+        <v>1.557353701558213</v>
       </c>
       <c r="C6">
-        <v>1.195535132726491</v>
+        <v>0.6039259048679924</v>
       </c>
       <c r="D6">
-        <v>0.08094448261692122</v>
+        <v>0.1336837711561856</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.047255776478053</v>
+        <v>2.558988386332089</v>
       </c>
       <c r="G6">
-        <v>0.0008006791343674776</v>
+        <v>0.002513222797368886</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7325460945559996</v>
+        <v>1.085312868009893</v>
       </c>
       <c r="J6">
-        <v>0.3429027668113491</v>
+        <v>0.3322867488126633</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7496116261379946</v>
+        <v>1.425640500049628</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.110954445014499</v>
+        <v>1.59567035925761</v>
       </c>
       <c r="C7">
-        <v>1.257702678273063</v>
+        <v>0.6192546299597552</v>
       </c>
       <c r="D7">
-        <v>0.08425928945198535</v>
+        <v>0.1343105639535978</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.114693908822005</v>
+        <v>2.568990082016271</v>
       </c>
       <c r="G7">
-        <v>0.0007978449457892956</v>
+        <v>0.002511405126346039</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7485219525537019</v>
+        <v>1.086282918968564</v>
       </c>
       <c r="J7">
-        <v>0.3579184978951133</v>
+        <v>0.3352340047786981</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.732744217704397</v>
+        <v>1.41933084909731</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.79523171934062</v>
+        <v>1.76680527682106</v>
       </c>
       <c r="C8">
-        <v>1.537492877263617</v>
+        <v>0.6877796364428264</v>
       </c>
       <c r="D8">
-        <v>0.09908991406302903</v>
+        <v>0.1371882558100594</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.426101264033235</v>
+        <v>2.617146706372935</v>
       </c>
       <c r="G8">
-        <v>0.0007856533540158404</v>
+        <v>0.002503792580869421</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8245330853310477</v>
+        <v>1.092251788658281</v>
       </c>
       <c r="J8">
-        <v>0.4261212641417416</v>
+        <v>0.3487488597494206</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6617743420709381</v>
+        <v>1.392833436538933</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.191174519103981</v>
+        <v>2.109929727720214</v>
       </c>
       <c r="C9">
-        <v>2.113120178729389</v>
+        <v>0.825427527885779</v>
       </c>
       <c r="D9">
-        <v>0.1291270648339662</v>
+        <v>0.1432316732922914</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.099730282521961</v>
+        <v>2.726235936906448</v>
       </c>
       <c r="G9">
-        <v>0.000762713128851201</v>
+        <v>0.002490320984899656</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9981837016098893</v>
+        <v>1.110103458579886</v>
       </c>
       <c r="J9">
-        <v>0.5690203873820963</v>
+        <v>0.3771124302786149</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5365806759785272</v>
+        <v>1.345736472049065</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.266385457465447</v>
+        <v>2.366796260794786</v>
       </c>
       <c r="C10">
-        <v>2.560724741944171</v>
+        <v>0.9286578280064077</v>
       </c>
       <c r="D10">
-        <v>0.1520297343058843</v>
+        <v>0.1479153204998056</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.647892813168625</v>
+        <v>2.815522570210447</v>
       </c>
       <c r="G10">
-        <v>0.0007462656400104573</v>
+        <v>0.002481300529408724</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.146087178726077</v>
+        <v>1.12704447132846</v>
       </c>
       <c r="J10">
-        <v>0.6820317128988336</v>
+        <v>0.399117935598639</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4548292120503525</v>
+        <v>1.31412397256323</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.770743186106472</v>
+        <v>2.484730000745685</v>
       </c>
       <c r="C11">
-        <v>2.771930775483781</v>
+        <v>0.9761001246789078</v>
       </c>
       <c r="D11">
-        <v>0.1626973728682373</v>
+        <v>0.1500988848146676</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.91280536320366</v>
+        <v>2.858171565121694</v>
       </c>
       <c r="G11">
-        <v>0.00073882301379583</v>
+        <v>0.002477385028071699</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.219209673689505</v>
+        <v>1.135599354068844</v>
       </c>
       <c r="J11">
-        <v>0.7358417609949583</v>
+        <v>0.4093894256744477</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4203180161420619</v>
+        <v>1.300397122701195</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.964363300066907</v>
+        <v>2.529547214163983</v>
       </c>
       <c r="C12">
-        <v>2.853222062061946</v>
+        <v>0.9941364126959229</v>
       </c>
       <c r="D12">
-        <v>0.1667794281982538</v>
+        <v>0.1509333439109781</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.015754210096162</v>
+        <v>2.874617395170787</v>
       </c>
       <c r="G12">
-        <v>0.0007360055489971828</v>
+        <v>0.00247592917824956</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.247881399345104</v>
+        <v>1.138962234967636</v>
       </c>
       <c r="J12">
-        <v>0.7566291066506921</v>
+        <v>0.4133170632429426</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4076809144646312</v>
+        <v>1.295293642437805</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.922538965336457</v>
+        <v>2.519887947411803</v>
       </c>
       <c r="C13">
-        <v>2.835652251587931</v>
+        <v>0.9902487959370205</v>
       </c>
       <c r="D13">
-        <v>0.1658982792198032</v>
+        <v>0.1507532909742366</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.99345825217631</v>
+        <v>2.8710622910138</v>
       </c>
       <c r="G13">
-        <v>0.0007366123848387943</v>
+        <v>0.002476241529398566</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.241660250354371</v>
+        <v>1.138232471536924</v>
       </c>
       <c r="J13">
-        <v>0.7521327552701393</v>
+        <v>0.4124694759160263</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4103825245022072</v>
+        <v>1.296388552726466</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.78661693063458</v>
+        <v>2.488413953959707</v>
       </c>
       <c r="C14">
-        <v>2.77859096300773</v>
+        <v>0.9775825505356011</v>
       </c>
       <c r="D14">
-        <v>0.163032313372085</v>
+        <v>0.1501673842677462</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.921219771028717</v>
+        <v>2.859518630040697</v>
       </c>
       <c r="G14">
-        <v>0.0007385912313867685</v>
+        <v>0.002477264716926643</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.221547939963017</v>
+        <v>1.135873540771655</v>
       </c>
       <c r="J14">
-        <v>0.7375433043031876</v>
+        <v>0.4097117893306859</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4192694118284734</v>
+        <v>1.299975357544675</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.703717628021195</v>
+        <v>2.469155907623929</v>
       </c>
       <c r="C15">
-        <v>2.743817343603837</v>
+        <v>0.9698333923266773</v>
       </c>
       <c r="D15">
-        <v>0.1612825701967893</v>
+        <v>0.1498094873529965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.87732727203948</v>
+        <v>2.852486398892012</v>
       </c>
       <c r="G15">
-        <v>0.0007398032939925002</v>
+        <v>0.002477894942807059</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.209361041477678</v>
+        <v>1.134444729308512</v>
       </c>
       <c r="J15">
-        <v>0.7286624516611511</v>
+        <v>0.4080275966934153</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.424770595781137</v>
+        <v>1.302184712941983</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.233767124296662</v>
+        <v>2.359111027907204</v>
       </c>
       <c r="C16">
-        <v>2.547092699745747</v>
+        <v>0.9255672006792679</v>
       </c>
       <c r="D16">
-        <v>0.1513381347262737</v>
+        <v>0.147773682883809</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.630925490553381</v>
+        <v>2.812776535394192</v>
       </c>
       <c r="G16">
-        <v>0.0007467524353332399</v>
+        <v>0.002481560184598487</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.14143759938419</v>
+        <v>1.126502574599002</v>
       </c>
       <c r="J16">
-        <v>0.6785687588424025</v>
+        <v>0.3984519660050552</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4571422882383409</v>
+        <v>1.315034258853416</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.949662037516816</v>
+        <v>2.291881353971064</v>
       </c>
       <c r="C17">
-        <v>2.428498240145359</v>
+        <v>0.8985359606805332</v>
       </c>
       <c r="D17">
-        <v>0.1453057431485121</v>
+        <v>0.1465383273431655</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.484011198624245</v>
+        <v>2.788938661631761</v>
       </c>
       <c r="G17">
-        <v>0.0007510224382608795</v>
+        <v>0.00248385671515785</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.101358715292562</v>
+        <v>1.121848547441502</v>
       </c>
       <c r="J17">
-        <v>0.6484960510390465</v>
+        <v>0.392644850539952</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.477717914906389</v>
+        <v>1.323084896097274</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.787656595944213</v>
+        <v>2.253314494212077</v>
       </c>
       <c r="C18">
-        <v>2.36098494408219</v>
+        <v>0.8830336087212345</v>
       </c>
       <c r="D18">
-        <v>0.1418590638785986</v>
+        <v>0.1458327686977299</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.400946561327061</v>
+        <v>2.775418808871109</v>
       </c>
       <c r="G18">
-        <v>0.0007534824672273714</v>
+        <v>0.002485195319209573</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.078846414742685</v>
+        <v>1.119251441526529</v>
       </c>
       <c r="J18">
-        <v>0.6314204927761438</v>
+        <v>0.389329294183355</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4898013488387001</v>
+        <v>1.327776917608187</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.733033248301354</v>
+        <v>2.240273842281056</v>
       </c>
       <c r="C19">
-        <v>2.338240016365773</v>
+        <v>0.8777925123298473</v>
       </c>
       <c r="D19">
-        <v>0.1406958411901797</v>
+        <v>0.1455947356120788</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.373057981682308</v>
+        <v>2.77087393216695</v>
       </c>
       <c r="G19">
-        <v>0.0007543162173752182</v>
+        <v>0.002485651592338933</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.071312920212947</v>
+        <v>1.118385765594809</v>
       </c>
       <c r="J19">
-        <v>0.6256752156681671</v>
+        <v>0.3882109038078028</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4939340411442039</v>
+        <v>1.329376102643547</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.979757208312947</v>
+        <v>2.299027507097662</v>
       </c>
       <c r="C20">
-        <v>2.441048982547386</v>
+        <v>0.9014087824817238</v>
       </c>
       <c r="D20">
-        <v>0.1459454771453466</v>
+        <v>0.1466693172762632</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.499499128060648</v>
+        <v>2.791456445571129</v>
       </c>
       <c r="G20">
-        <v>0.0007505675035743475</v>
+        <v>0.00248361041479117</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.105568335068085</v>
+        <v>1.122335711287988</v>
       </c>
       <c r="J20">
-        <v>0.6516739808486705</v>
+        <v>0.3932604841754994</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4755015337172495</v>
+        <v>1.322221522173315</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.826465267960032</v>
+        <v>2.497654313974977</v>
       </c>
       <c r="C21">
-        <v>2.795313689597208</v>
+        <v>0.9813009964764774</v>
       </c>
       <c r="D21">
-        <v>0.1638729066473132</v>
+        <v>0.1503392734401103</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.942363044208633</v>
+        <v>2.862901233924958</v>
       </c>
       <c r="G21">
-        <v>0.0007380100137885594</v>
+        <v>0.002476963454142557</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.227427518832286</v>
+        <v>1.136563057902237</v>
       </c>
       <c r="J21">
-        <v>0.7418168585109868</v>
+        <v>0.4105207520658922</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4166469970708917</v>
+        <v>1.298919254638854</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.395431014991516</v>
+        <v>2.628392073121972</v>
       </c>
       <c r="C22">
-        <v>3.034625290884605</v>
+        <v>1.033929301280807</v>
       </c>
       <c r="D22">
-        <v>0.175840862675372</v>
+        <v>0.1527820364080128</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.247376592603985</v>
+        <v>2.911319013969745</v>
       </c>
       <c r="G22">
-        <v>0.0007298053881956687</v>
+        <v>0.002472775799398533</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.312876100141651</v>
+        <v>1.146580965370859</v>
       </c>
       <c r="J22">
-        <v>0.8031627951534972</v>
+        <v>0.4220233444967079</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3807249562601065</v>
+        <v>1.284241427256564</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.090171759899818</v>
+        <v>2.558529542754513</v>
       </c>
       <c r="C23">
-        <v>2.906105274769914</v>
+        <v>1.005802166964997</v>
       </c>
       <c r="D23">
-        <v>0.1694278565619243</v>
+        <v>0.1514742477403814</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.08301120393125</v>
+        <v>2.885318613650242</v>
       </c>
       <c r="G23">
-        <v>0.0007341859164394782</v>
+        <v>0.002474996561349387</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.26668601448398</v>
+        <v>1.141167934831486</v>
       </c>
       <c r="J23">
-        <v>0.7701741351153402</v>
+        <v>0.4158637111482903</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3996471078579411</v>
+        <v>1.292024605192971</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.966147070059549</v>
+        <v>2.295796468639708</v>
       </c>
       <c r="C24">
-        <v>2.435372726672085</v>
+        <v>0.9001098606673281</v>
       </c>
       <c r="D24">
-        <v>0.1456561871633824</v>
+        <v>0.1466100821993308</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.492492708678043</v>
+        <v>2.79031757991396</v>
       </c>
       <c r="G24">
-        <v>0.0007507731632034608</v>
+        <v>0.002483721710267799</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.103663526852785</v>
+        <v>1.1221152199291</v>
       </c>
       <c r="J24">
-        <v>0.6502365781239092</v>
+        <v>0.3929820845085601</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.476502771195225</v>
+        <v>1.322611655457564</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.806162323281683</v>
+        <v>2.016280723935665</v>
       </c>
       <c r="C25">
-        <v>1.953728161021672</v>
+        <v>0.7878290827597993</v>
       </c>
       <c r="D25">
-        <v>0.1208750245232437</v>
+        <v>0.1415539703280047</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.909342818959658</v>
+        <v>2.69513455629999</v>
       </c>
       <c r="G25">
-        <v>0.0007688329651447094</v>
+        <v>0.002493810594230705</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.948067085948793</v>
+        <v>1.104608044901397</v>
       </c>
       <c r="J25">
-        <v>0.5291505970807435</v>
+        <v>0.3692367972740129</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5687906503551758</v>
+        <v>1.35795422413592</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_110/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.813677153944695</v>
+        <v>3.983753639698421</v>
       </c>
       <c r="C2">
-        <v>0.7065639160009596</v>
+        <v>1.614858406555697</v>
       </c>
       <c r="D2">
-        <v>0.1379950750549597</v>
+        <v>0.1031646233280128</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.631178938091892</v>
+        <v>2.5142539876298</v>
       </c>
       <c r="G2">
-        <v>0.002501828940926806</v>
+        <v>0.0007824215140852078</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.094282161516929</v>
+        <v>0.8466190292969884</v>
       </c>
       <c r="J2">
-        <v>0.3525354678427703</v>
+        <v>0.4451409318278365</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.385982282758096</v>
+        <v>0.643435693909808</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.678304304843493</v>
+        <v>3.440684951349908</v>
       </c>
       <c r="C3">
-        <v>0.6523304722893499</v>
+        <v>1.392320871702907</v>
       </c>
       <c r="D3">
-        <v>0.135685494883262</v>
+        <v>0.09141314333273698</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.591588512679365</v>
+        <v>2.262997608909203</v>
       </c>
       <c r="G3">
-        <v>0.002507634745315879</v>
+        <v>0.000791872559130258</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.088857847933447</v>
+        <v>0.7842978669003458</v>
       </c>
       <c r="J3">
-        <v>0.3416937574009893</v>
+        <v>0.3906133027088856</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.406220596217732</v>
+        <v>0.6976400770466142</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.596119825845676</v>
+        <v>3.11274533181529</v>
       </c>
       <c r="C4">
-        <v>0.619434472920716</v>
+        <v>1.258432793371242</v>
       </c>
       <c r="D4">
-        <v>0.1343179594307173</v>
+        <v>0.08429817843067866</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.569109304773662</v>
+        <v>2.115490019533908</v>
       </c>
       <c r="G4">
-        <v>0.002511384081331946</v>
+        <v>0.0007978119616862905</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.086295189753933</v>
+        <v>0.7487117055870982</v>
       </c>
       <c r="J4">
-        <v>0.3352687684444788</v>
+        <v>0.3580951715005938</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.419257753582169</v>
+        <v>0.7325486791261042</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.56286209936377</v>
+        <v>2.980288523109948</v>
       </c>
       <c r="C5">
-        <v>0.6061292223374721</v>
+        <v>1.204463692431432</v>
       </c>
       <c r="D5">
-        <v>0.1337734208037133</v>
+        <v>0.08142098146407761</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.560406028647137</v>
+        <v>2.056898184827702</v>
       </c>
       <c r="G5">
-        <v>0.002512958541597698</v>
+        <v>0.0008002688914719039</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.085442839637238</v>
+        <v>0.7348181768259678</v>
       </c>
       <c r="J5">
-        <v>0.3327084109077276</v>
+        <v>0.3450559255807377</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.424723653769419</v>
+        <v>0.7471622059793894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.557353701558213</v>
+        <v>2.958359932378414</v>
       </c>
       <c r="C6">
-        <v>0.6039259048679924</v>
+        <v>1.195535132726491</v>
       </c>
       <c r="D6">
-        <v>0.1336837711561856</v>
+        <v>0.08094448261677911</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.558988386332089</v>
+        <v>2.047255776478053</v>
       </c>
       <c r="G6">
-        <v>0.002513222797368886</v>
+        <v>0.0008006791343473141</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.085312868009893</v>
+        <v>0.7325460945559996</v>
       </c>
       <c r="J6">
-        <v>0.3322867488126633</v>
+        <v>0.3429027668112781</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.425640500049628</v>
+        <v>0.7496116261380301</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.59567035925761</v>
+        <v>3.110954445014556</v>
       </c>
       <c r="C7">
-        <v>0.6192546299597552</v>
+        <v>1.25770267827329</v>
       </c>
       <c r="D7">
-        <v>0.1343105639535978</v>
+        <v>0.08425928945176508</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.568990082016271</v>
+        <v>2.114693908822034</v>
       </c>
       <c r="G7">
-        <v>0.002511405126346039</v>
+        <v>0.0007978449458176997</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.086282918968564</v>
+        <v>0.748521952553709</v>
       </c>
       <c r="J7">
-        <v>0.3352340047786981</v>
+        <v>0.3579184978951275</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.41933084909731</v>
+        <v>0.7327442177044645</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.76680527682106</v>
+        <v>3.795231719340507</v>
       </c>
       <c r="C8">
-        <v>0.6877796364428264</v>
+        <v>1.537492877263503</v>
       </c>
       <c r="D8">
-        <v>0.1371882558100594</v>
+        <v>0.09908991406301482</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.617146706372935</v>
+        <v>2.426101264033264</v>
       </c>
       <c r="G8">
-        <v>0.002503792580869421</v>
+        <v>0.000785653354072536</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.092251788658281</v>
+        <v>0.8245330853310477</v>
       </c>
       <c r="J8">
-        <v>0.3487488597494206</v>
+        <v>0.4261212641417984</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.392833436538933</v>
+        <v>0.6617743420709985</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.109929727720214</v>
+        <v>5.191174519103868</v>
       </c>
       <c r="C9">
-        <v>0.825427527885779</v>
+        <v>2.113120178729332</v>
       </c>
       <c r="D9">
-        <v>0.1432316732922914</v>
+        <v>0.1291270648340515</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.726235936906448</v>
+        <v>3.099730282521961</v>
       </c>
       <c r="G9">
-        <v>0.002490320984899656</v>
+        <v>0.0007627131287919475</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.110103458579886</v>
+        <v>0.9981837016098893</v>
       </c>
       <c r="J9">
-        <v>0.3771124302786149</v>
+        <v>0.5690203873819968</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.345736472049065</v>
+        <v>0.5365806759785805</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.366796260794786</v>
+        <v>6.266385457465219</v>
       </c>
       <c r="C10">
-        <v>0.9286578280064077</v>
+        <v>2.560724741944171</v>
       </c>
       <c r="D10">
-        <v>0.1479153204998056</v>
+        <v>0.1520297343060264</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.815522570210447</v>
+        <v>3.647892813168596</v>
       </c>
       <c r="G10">
-        <v>0.002481300529408724</v>
+        <v>0.0007462656400728544</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.12704447132846</v>
+        <v>1.146087178726091</v>
       </c>
       <c r="J10">
-        <v>0.399117935598639</v>
+        <v>0.6820317128987483</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.31412397256323</v>
+        <v>0.4548292120503561</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.484730000745685</v>
+        <v>6.770743186106358</v>
       </c>
       <c r="C11">
-        <v>0.9761001246789078</v>
+        <v>2.771930775483554</v>
       </c>
       <c r="D11">
-        <v>0.1500988848146676</v>
+        <v>0.1626973728685641</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.858171565121694</v>
+        <v>3.912805363203717</v>
       </c>
       <c r="G11">
-        <v>0.002477385028071699</v>
+        <v>0.0007388230137927126</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.135599354068844</v>
+        <v>1.219209673689519</v>
       </c>
       <c r="J11">
-        <v>0.4093894256744477</v>
+        <v>0.7358417609949157</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.300397122701195</v>
+        <v>0.4203180161420335</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.529547214163983</v>
+        <v>6.964363300067021</v>
       </c>
       <c r="C12">
-        <v>0.9941364126959229</v>
+        <v>2.853222062061946</v>
       </c>
       <c r="D12">
-        <v>0.1509333439109781</v>
+        <v>0.1667794281978985</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.874617395170787</v>
+        <v>4.015754210096134</v>
       </c>
       <c r="G12">
-        <v>0.00247592917824956</v>
+        <v>0.0007360055490475137</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.138962234967636</v>
+        <v>1.247881399345104</v>
       </c>
       <c r="J12">
-        <v>0.4133170632429426</v>
+        <v>0.7566291066507489</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.295293642437805</v>
+        <v>0.4076809144646596</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.519887947411803</v>
+        <v>6.922538965336287</v>
       </c>
       <c r="C13">
-        <v>0.9902487959370205</v>
+        <v>2.835652251587646</v>
       </c>
       <c r="D13">
-        <v>0.1507532909742366</v>
+        <v>0.1658982792196753</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.8710622910138</v>
+        <v>3.993458252176339</v>
       </c>
       <c r="G13">
-        <v>0.002476241529398566</v>
+        <v>0.0007366123848926777</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.138232471536924</v>
+        <v>1.241660250354386</v>
       </c>
       <c r="J13">
-        <v>0.4124694759160263</v>
+        <v>0.752132755270253</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.296388552726466</v>
+        <v>0.410382524502193</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.488413953959707</v>
+        <v>6.786616930634523</v>
       </c>
       <c r="C14">
-        <v>0.9775825505356011</v>
+        <v>2.778590963007332</v>
       </c>
       <c r="D14">
-        <v>0.1501673842677462</v>
+        <v>0.1630323133719429</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.859518630040697</v>
+        <v>3.921219771028774</v>
       </c>
       <c r="G14">
-        <v>0.002477264716926643</v>
+        <v>0.0007385912313839782</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.135873540771655</v>
+        <v>1.221547939963045</v>
       </c>
       <c r="J14">
-        <v>0.4097117893306859</v>
+        <v>0.7375433043032729</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.299975357544675</v>
+        <v>0.4192694118284557</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.469155907623929</v>
+        <v>6.703717628021138</v>
       </c>
       <c r="C15">
-        <v>0.9698333923266773</v>
+        <v>2.743817343603894</v>
       </c>
       <c r="D15">
-        <v>0.1498094873529965</v>
+        <v>0.1612825701970166</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.852486398892012</v>
+        <v>3.877327272039537</v>
       </c>
       <c r="G15">
-        <v>0.002477894942807059</v>
+        <v>0.0007398032939899869</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.134444729308512</v>
+        <v>1.209361041477692</v>
       </c>
       <c r="J15">
-        <v>0.4080275966934153</v>
+        <v>0.7286624516611369</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.302184712941983</v>
+        <v>0.4247705957811903</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.359111027907204</v>
+        <v>6.233767124296719</v>
       </c>
       <c r="C16">
-        <v>0.9255672006792679</v>
+        <v>2.547092699745861</v>
       </c>
       <c r="D16">
-        <v>0.147773682883809</v>
+        <v>0.1513381347260037</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.812776535394192</v>
+        <v>3.630925490553409</v>
       </c>
       <c r="G16">
-        <v>0.002481560184598487</v>
+        <v>0.0007467524353252053</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.126502574599002</v>
+        <v>1.141437599384204</v>
       </c>
       <c r="J16">
-        <v>0.3984519660050552</v>
+        <v>0.6785687588423883</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.315034258853416</v>
+        <v>0.4571422882383871</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.291881353971064</v>
+        <v>5.949662037516987</v>
       </c>
       <c r="C17">
-        <v>0.8985359606805332</v>
+        <v>2.428498240145643</v>
       </c>
       <c r="D17">
-        <v>0.1465383273431655</v>
+        <v>0.1453057431485121</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.788938661631761</v>
+        <v>3.484011198624245</v>
       </c>
       <c r="G17">
-        <v>0.00248385671515785</v>
+        <v>0.0007510224382610842</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.121848547441502</v>
+        <v>1.101358715292577</v>
       </c>
       <c r="J17">
-        <v>0.392644850539952</v>
+        <v>0.6484960510388049</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.323084896097274</v>
+        <v>0.4777179149063748</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.253314494212077</v>
+        <v>5.787656595944213</v>
       </c>
       <c r="C18">
-        <v>0.8830336087212345</v>
+        <v>2.360984944081963</v>
       </c>
       <c r="D18">
-        <v>0.1458327686977299</v>
+        <v>0.1418590638786981</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.775418808871109</v>
+        <v>3.400946561327032</v>
       </c>
       <c r="G18">
-        <v>0.002485195319209573</v>
+        <v>0.000753482467170861</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.119251441526529</v>
+        <v>1.078846414742685</v>
       </c>
       <c r="J18">
-        <v>0.389329294183355</v>
+        <v>0.6314204927761011</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.327776917608187</v>
+        <v>0.4898013488386361</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.240273842281056</v>
+        <v>5.73303324830124</v>
       </c>
       <c r="C19">
-        <v>0.8777925123298473</v>
+        <v>2.338240016365717</v>
       </c>
       <c r="D19">
-        <v>0.1455947356120788</v>
+        <v>0.1406958411902934</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.77087393216695</v>
+        <v>3.373057981682365</v>
       </c>
       <c r="G19">
-        <v>0.002485651592338933</v>
+        <v>0.0007543162174318702</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.118385765594809</v>
+        <v>1.071312920212961</v>
       </c>
       <c r="J19">
-        <v>0.3882109038078028</v>
+        <v>0.6256752156683092</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.329376102643547</v>
+        <v>0.4939340411441862</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.299027507097662</v>
+        <v>5.979757208312947</v>
       </c>
       <c r="C20">
-        <v>0.9014087824817238</v>
+        <v>2.441048982547557</v>
       </c>
       <c r="D20">
-        <v>0.1466693172762632</v>
+        <v>0.1459454771450908</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.791456445571129</v>
+        <v>3.499499128060705</v>
       </c>
       <c r="G20">
-        <v>0.00248361041479117</v>
+        <v>0.0007505675036269344</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.122335711287988</v>
+        <v>1.105568335068099</v>
       </c>
       <c r="J20">
-        <v>0.3932604841754994</v>
+        <v>0.6516739808485141</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.322221522173315</v>
+        <v>0.4755015337172246</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.497654313974977</v>
+        <v>6.826465267960202</v>
       </c>
       <c r="C21">
-        <v>0.9813009964764774</v>
+        <v>2.795313689596867</v>
       </c>
       <c r="D21">
-        <v>0.1503392734401103</v>
+        <v>0.1638729066471996</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.862901233924958</v>
+        <v>3.94236304420869</v>
       </c>
       <c r="G21">
-        <v>0.002476963454142557</v>
+        <v>0.0007380100137316381</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.136563057902237</v>
+        <v>1.2274275188323</v>
       </c>
       <c r="J21">
-        <v>0.4105207520658922</v>
+        <v>0.7418168585108447</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.298919254638854</v>
+        <v>0.4166469970708704</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.628392073121972</v>
+        <v>7.395431014991289</v>
       </c>
       <c r="C22">
-        <v>1.033929301280807</v>
+        <v>3.034625290884549</v>
       </c>
       <c r="D22">
-        <v>0.1527820364080128</v>
+        <v>0.1758408626756136</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.911319013969745</v>
+        <v>4.247376592603956</v>
       </c>
       <c r="G22">
-        <v>0.002472775799398533</v>
+        <v>0.0007298053881295748</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.146580965370859</v>
+        <v>1.312876100141636</v>
       </c>
       <c r="J22">
-        <v>0.4220233444967079</v>
+        <v>0.8031627951534972</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.284241427256564</v>
+        <v>0.3807249562601562</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.558529542754513</v>
+        <v>7.09017175989959</v>
       </c>
       <c r="C23">
-        <v>1.005802166964997</v>
+        <v>2.906105274769629</v>
       </c>
       <c r="D23">
-        <v>0.1514742477403814</v>
+        <v>0.1694278565616969</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.885318613650242</v>
+        <v>4.083011203931221</v>
       </c>
       <c r="G23">
-        <v>0.002474996561349387</v>
+        <v>0.0007341859164394365</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.141167934831486</v>
+        <v>1.266686014483994</v>
       </c>
       <c r="J23">
-        <v>0.4158637111482903</v>
+        <v>0.770174135115397</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.292024605192971</v>
+        <v>0.399647107857934</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.295796468639708</v>
+        <v>5.966147070059606</v>
       </c>
       <c r="C24">
-        <v>0.9001098606673281</v>
+        <v>2.435372726672085</v>
       </c>
       <c r="D24">
-        <v>0.1466100821993308</v>
+        <v>0.1456561871632687</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.79031757991396</v>
+        <v>3.492492708678014</v>
       </c>
       <c r="G24">
-        <v>0.002483721710267799</v>
+        <v>0.0007507731631409278</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.1221152199291</v>
+        <v>1.103663526852799</v>
       </c>
       <c r="J24">
-        <v>0.3929820845085601</v>
+        <v>0.6502365781240371</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.322611655457564</v>
+        <v>0.4765027711952214</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.016280723935665</v>
+        <v>4.806162323281683</v>
       </c>
       <c r="C25">
-        <v>0.7878290827597993</v>
+        <v>1.953728161021672</v>
       </c>
       <c r="D25">
-        <v>0.1415539703280047</v>
+        <v>0.1208750245233574</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.69513455629999</v>
+        <v>2.90934281895963</v>
       </c>
       <c r="G25">
-        <v>0.002493810594230705</v>
+        <v>0.0007688329651427935</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.104608044901397</v>
+        <v>0.9480670859488072</v>
       </c>
       <c r="J25">
-        <v>0.3692367972740129</v>
+        <v>0.5291505970805872</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.35795422413592</v>
+        <v>0.5687906503551581</v>
       </c>
       <c r="O25">
         <v>0</v>
